--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-06_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-06_beg.xlsx
@@ -1636,7 +1636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Faust"]  Me and a few teams have encouraged the "herd" to gather up here.
+    <t xml:space="preserve">[name="Faust"]  Me and a few teams have encouraged the 'herd' to gather up here.
 </t>
   </si>
   <si>
@@ -1744,7 +1744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Faust"]  (Mouthing "pull the trigger.")
+    <t xml:space="preserve">[name="Faust"]  (Mouthing 'pull the trigger.')
 </t>
   </si>
   <si>
